--- a/royalindianclub/Book2.xlsx
+++ b/royalindianclub/Book2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="130" windowWidth="18140" windowHeight="9040"/>
+    <workbookView xWindow="75" yWindow="135" windowWidth="18135" windowHeight="9045"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -712,12 +712,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -732,9 +738,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1031,13 +1039,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:XFD42"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="54.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1245,8 +1253,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:1" s="3" customFormat="1">
+      <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1619,9 +1627,9 @@
       <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="59.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -2216,7 +2224,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
